--- a/report/結合_テスト結果_画面遷移.xlsx
+++ b/report/結合_テスト結果_画面遷移.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AB597-C82F-470D-8539-7367FCA6A1C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164A921-C55F-48E0-B3DC-D973E204AEE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,8 +15,8 @@
     <sheet name="ケース5" sheetId="5" r:id="rId5"/>
     <sheet name="ケース6" sheetId="6" r:id="rId6"/>
     <sheet name="ケース7" sheetId="7" r:id="rId7"/>
-    <sheet name="ケース9" sheetId="9" r:id="rId8"/>
-    <sheet name="ケース8" sheetId="8" r:id="rId9"/>
+    <sheet name="ケース8" sheetId="8" r:id="rId8"/>
+    <sheet name="ケース9" sheetId="9" r:id="rId9"/>
     <sheet name="ケース10" sheetId="10" r:id="rId10"/>
     <sheet name="ケース11" sheetId="11" r:id="rId11"/>
     <sheet name="ケース12" sheetId="12" r:id="rId12"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>テスト内容：ログイン画面でナビバーのアイコンを押下する。</t>
     <rPh sb="3" eb="5">
@@ -418,6 +418,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -468,9 +476,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -492,13 +503,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424260</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -536,13 +547,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -602,13 +613,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>52</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>413273</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -651,13 +662,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -695,13 +706,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581077</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -761,13 +772,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -810,13 +821,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -854,13 +865,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438149</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>361898</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -920,13 +931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -969,13 +980,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1013,13 +1024,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1079,13 +1090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1128,13 +1139,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1172,13 +1183,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1238,13 +1249,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435336</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1287,13 +1298,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>46</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457621</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1331,13 +1342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504870</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1397,13 +1408,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457575</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1446,13 +1457,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>46</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457621</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1490,13 +1501,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581070</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1556,13 +1567,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1605,13 +1616,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>46</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457621</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1649,13 +1660,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>457245</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1715,13 +1726,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1764,13 +1775,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1808,13 +1819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1852,13 +1863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1923,13 +1934,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -1967,13 +1978,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2033,13 +2044,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2082,13 +2093,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2126,13 +2137,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2192,13 +2203,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2241,13 +2252,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>413221</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2285,13 +2296,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2351,13 +2362,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>413221</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2400,13 +2411,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2444,13 +2455,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2510,13 +2521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2559,13 +2570,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2603,13 +2614,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2669,13 +2680,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457550</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2718,13 +2729,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2762,13 +2773,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
@@ -2828,13 +2839,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457550</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2877,13 +2888,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -2921,13 +2932,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2987,13 +2998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3036,13 +3047,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424260</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3080,13 +3091,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3146,13 +3157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3195,13 +3206,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3239,13 +3250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -3305,13 +3316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3354,13 +3365,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3398,13 +3409,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3464,13 +3475,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3513,13 +3524,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3557,13 +3568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3623,13 +3634,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3672,13 +3683,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3716,13 +3727,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -3782,13 +3793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457550</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3831,13 +3842,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457550</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3875,13 +3886,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -3919,13 +3930,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -3990,16 +4001,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>413221</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
+      <xdr:rowOff>138300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4022,7 +4033,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="685800"/>
+          <a:off x="0" y="704850"/>
           <a:ext cx="11386021" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4034,16 +4045,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495299</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4058,7 +4069,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1866899" y="1152525"/>
+          <a:off x="2552699" y="1171575"/>
           <a:ext cx="752475" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4100,13 +4111,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424260</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4149,13 +4160,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4193,13 +4204,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -4259,13 +4270,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4308,13 +4319,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4352,13 +4363,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>581026</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -4418,13 +4429,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4467,13 +4478,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4511,13 +4522,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4555,13 +4566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4626,13 +4637,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4670,13 +4681,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4714,13 +4725,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -4785,13 +4796,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4829,13 +4840,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -4895,13 +4906,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4944,13 +4955,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -4988,13 +4999,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5054,13 +5065,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5103,13 +5114,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5147,13 +5158,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
@@ -5213,13 +5224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5262,13 +5273,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5306,13 +5317,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
@@ -5372,13 +5383,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424290</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5421,13 +5432,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5465,13 +5476,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5509,13 +5520,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -5580,13 +5591,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5624,13 +5635,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5668,13 +5679,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
@@ -5739,13 +5750,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5783,13 +5794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581076</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
@@ -5849,13 +5860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435336</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5898,13 +5909,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5942,13 +5953,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -5986,13 +5997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -6057,13 +6068,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6101,13 +6112,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -6167,13 +6178,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446442</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6216,13 +6227,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6260,13 +6271,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -6326,13 +6337,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6375,13 +6386,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435356</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6419,13 +6430,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6485,13 +6496,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6534,13 +6545,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6578,13 +6589,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6622,13 +6633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -6693,13 +6704,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6737,13 +6748,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6781,13 +6792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -6852,13 +6863,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6896,13 +6907,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -6940,13 +6951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -7011,13 +7022,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7055,13 +7066,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -7121,13 +7132,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7170,13 +7181,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7214,13 +7225,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
@@ -7280,13 +7291,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7329,13 +7340,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7373,13 +7384,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -7439,13 +7450,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7488,13 +7499,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>46</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457621</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7532,13 +7543,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390571</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7598,13 +7609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402216</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7647,13 +7658,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7691,13 +7702,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
@@ -7757,13 +7768,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7806,13 +7817,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7850,13 +7861,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>402225</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -7894,13 +7905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
@@ -7965,13 +7976,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>446444</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -8009,13 +8020,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>424260</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -8053,13 +8064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190454</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8124,13 +8135,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>468714</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -8168,13 +8179,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>57201</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142926</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -8234,13 +8245,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>46</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457621</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -8283,13 +8294,172 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>468663</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD5B40A-1FFC-4C32-A86D-44B31797D1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="11441463" cy="6120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0C3F83-3E25-43E1-85C6-7463786969A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571626" y="1143000"/>
+          <a:ext cx="304800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>468663</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1027B2A4-075F-4579-89F1-1B33C61C3490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7029450"/>
+          <a:ext cx="11441463" cy="6120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -8327,13 +8497,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>523925</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -8393,13 +8563,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>46</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457621</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
@@ -8427,165 +8597,6 @@
         <a:xfrm>
           <a:off x="46" y="7029450"/>
           <a:ext cx="11430375" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>468663</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD5B40A-1FFC-4C32-A86D-44B31797D1A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="685800"/>
-          <a:ext cx="11441463" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0C3F83-3E25-43E1-85C6-7463786969A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1571626" y="1143000"/>
-          <a:ext cx="304800" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>468663</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1027B2A4-075F-4579-89F1-1B33C61C3490}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7029450"/>
-          <a:ext cx="11441463" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8918,13 +8929,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="52" width="9" customWidth="1"/>
+    <col min="2" max="53" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8936,6 +8948,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8948,9 +9078,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB3EB61-0FDF-4BAE-947D-7569808FCAC4}">
-  <dimension ref="A2:A42"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A2:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -8964,8 +9097,124 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8977,10 +9226,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF52D37-EC18-4035-8D21-AE538F0A8520}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8993,6 +9243,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9004,9 +9372,12 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8335DE8-262C-469A-9CCE-7508C6F8ECB3}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9018,6 +9389,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9029,7 +9518,8 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57392989-80B6-49E0-9DA8-6339C9DB767D}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9043,6 +9533,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9054,7 +9662,8 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1058FB42-77FB-49F1-8823-68EA6C5789E7}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9068,6 +9677,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9079,7 +9806,8 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1805370B-4BF6-4569-AE08-D571BB44EDA6}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9093,6 +9821,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9104,7 +9950,8 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF27F21E-62D8-4B15-B2D2-819A28D3C930}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9118,6 +9965,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9129,7 +10094,8 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8554104D-4FBF-4F03-9B3B-8A900DC6D69D}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9143,6 +10109,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9154,7 +10238,8 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515F1A0C-2A36-494A-86CB-0BC01A0F5940}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9168,6 +10253,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9179,7 +10382,8 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B35935-0CE0-4A83-A2C8-2E87C307A36A}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9193,6 +10397,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9204,7 +10526,8 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3512A-B5CE-45C3-9C51-B360B6B90473}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9218,6 +10541,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9229,9 +10670,12 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11B9FFB-C8FB-4DBB-B305-03B3B4CB6920}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9243,6 +10687,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9254,7 +10816,8 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122526A7-CB59-4232-AD4B-39346896B0C7}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9268,6 +10831,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9279,7 +10960,8 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1387959B-5144-4AC4-A6F6-1F0712C86BD6}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9293,6 +10975,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9304,11 +11104,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A29100-B710-45FC-ABBD-75D92E9A8A96}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9320,6 +11119,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9331,11 +11248,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10270FF-E90C-4738-AC65-C14FE0D45222}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9347,6 +11263,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9359,7 +11393,8 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9321865-F58E-4734-8E07-58718C8C1939}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9373,6 +11408,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9384,7 +11537,8 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0121AFF2-9D9F-4C3C-9F14-D97B266FA90C}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet26"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9398,6 +11552,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9409,7 +11681,8 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E43F71-D67D-4544-B542-0AEFEBCE5F4E}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet27"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9423,6 +11696,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9434,7 +11825,8 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0243670-6E24-4E83-B7EF-92CF99B37BD5}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet28"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9448,6 +11840,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9459,7 +11969,8 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63EEE08-9A92-4DCA-B1F2-26FD27D818B2}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet29"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9473,6 +11984,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9484,7 +12113,8 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF174901-2585-482B-9197-42C547EB3849}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9498,6 +12128,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +12257,8 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9967D09-750A-448F-BCA7-5BA67C4A4AEC}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet30"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9523,6 +12272,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9534,7 +12401,8 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C95EB2B-BFE5-4334-A1B3-CF8FBB9781D5}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet31"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9548,6 +12416,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9559,7 +12545,8 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AA072F-32BE-4CB0-97F5-C4E9509D4870}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet32"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9573,6 +12560,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9584,7 +12689,8 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D87BA-7F39-4996-AF2B-557A042BB81E}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet33"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9598,6 +12704,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9609,7 +12833,8 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71404E7D-8C4D-4E5B-BC44-922843FBE209}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet34"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9623,6 +12848,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9634,7 +12977,8 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFFA47E-2A51-4E8B-9B84-792839102A85}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet35"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9648,6 +12992,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9659,11 +13121,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9923F76-341B-413A-93A2-C77B5FEB3B37}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet36"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9675,6 +13136,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9686,7 +13265,8 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02F2F30-6A30-4960-9A19-F0E6F23F233E}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet37"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9700,6 +13280,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9711,7 +13409,8 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B70C52-16AF-4274-B5D0-A6BBE2784A1C}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet38"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9725,6 +13424,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9736,7 +13553,8 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA7C73F-A0A1-48C4-AD37-F73088F81ACC}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet39"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9750,6 +13568,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9761,7 +13697,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A990777D-1C42-4336-9868-2988B83DE799}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9775,6 +13712,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9786,7 +13841,8 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37775B8-552B-473B-921E-D9300F7F674F}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet40"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9800,6 +13856,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9811,7 +13985,8 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FCCDC-ABCA-4414-8B11-7016A0D2A78C}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet41"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9825,6 +14000,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9836,11 +14129,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E9819F-5DF6-430C-AA6E-56A43417902B}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet42"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9852,6 +14144,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9863,7 +14273,8 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BA90D-EF61-476F-8D8C-743F3BF8B8A5}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet43"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9877,6 +14288,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9888,7 +14417,8 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F42ED0A-7973-44AF-B75B-5B34D04BE2A0}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet44"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9902,6 +14432,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9913,7 +14561,8 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6632D511-1347-4461-B5DC-902C55232CDA}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet45"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9927,6 +14576,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9938,7 +14705,8 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5074DD-C83E-4790-A6DE-2BEE36B9387A}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet46"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9952,6 +14720,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9963,7 +14849,8 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B2DD0-2DA0-4B78-9E5A-874B1DFBBAE8}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet47"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9977,6 +14864,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9988,7 +14993,8 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E264215D-0844-486B-8B00-10AAB625CFCD}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet48"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10002,6 +15008,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10013,7 +15137,8 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85834140-7DCE-4C12-9B12-CC928BAEDAB1}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet49"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10027,6 +15152,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10038,7 +15281,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE74F904-B5F3-46EB-82A3-B421D297B394}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10052,6 +15296,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10063,7 +15425,8 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF5E793-8B89-47C6-AC09-662F91D2164B}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet50"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10077,6 +15440,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10088,7 +15569,8 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F09ACDA-C557-4073-ABFB-159973101696}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet51"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10102,6 +15584,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10113,7 +15713,8 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C9A0CA-E206-44C8-A5B8-EA02E6A2A798}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10127,6 +15728,124 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10138,7 +15857,8 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2631AFDD-7E85-40E4-A407-84DFB446C0E6}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10154,6 +15874,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10162,8 +16000,153 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9124B939-68C7-44F9-804C-3A7559E55C27}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A2:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AED985C-C6AF-4B04-BE64-4806C776B318}">
-  <dimension ref="A2:A3"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10179,31 +16162,122 @@
         <v>11</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9124B939-68C7-44F9-804C-3A7559E55C27}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
